--- a/data/trans_bre/P23_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>60,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 7,7</t>
+          <t>-9,0; 10,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 9,24</t>
+          <t>-2,37; 14,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 8,14</t>
+          <t>-6,55; 8,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 5,79</t>
+          <t>3,99; 32,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,99; 40,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 41,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 48,94</t>
+          <t>-36,47; 76,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 18,42</t>
+          <t>-8,63; 65,37</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-25,75; 55,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 162,82</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>10,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,43</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>57,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>58,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>48,43%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 15,09</t>
+          <t>4,32; 17,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 15,34</t>
+          <t>4,07; 15,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 12,61</t>
+          <t>2,16; 13,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 8,66</t>
+          <t>-7,62; 8,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,81; 92,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,74; 108,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 92,55</t>
+          <t>17,13; 109,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 44,36</t>
+          <t>17,77; 114,29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 93,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-21,58; 32,57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,69</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>75,12%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>65,17%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36,83%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 11,58</t>
+          <t>-3,24; 12,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 15,42</t>
+          <t>3,46; 14,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 12,73</t>
+          <t>3,34; 13,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 11,6</t>
+          <t>-0,36; 13,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 84,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,42; 159,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,34; 120,61</t>
+          <t>-15,99; 97,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 116,32</t>
+          <t>19,91; 143,09</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19,64; 129,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 99,65</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>44,73%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,04</t>
+          <t>1,3; 13,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,1</t>
+          <t>1,47; 14,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 8,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 6,38</t>
+          <t>-4,04; 10,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 58,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,81; 76,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 61,52</t>
+          <t>3,82; 81,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 29,01</t>
+          <t>6,63; 94,33</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-14,01; 49,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,72</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,19</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>41,33%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 10,87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 11,75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 9,68</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 10,58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,0; 64,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28,65; 74,46</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,78; 67,88</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 47,34</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>18,15</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,45%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>21,56%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>7,42%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>60,47%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.8658826256783381</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.823079634265842</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.8590898845429712</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>16.00979845132581</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.04711073889615785</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1824956305170277</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.04155122010218817</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.5212602746704108</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,0; 10,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 14,02</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 8,62</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 32,49</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-36,47; 76,7</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; 65,37</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-25,75; 55,56</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>9,82; 162,82</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.810721980340087</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.380173573313784</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.712491958943265</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.867977034467118</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.3734391850111825</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1124130128332456</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2915271718203706</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.03818359066295619</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.08585389384821</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.17398677233669</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.192083523326337</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>31.13053396494683</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.7527336030152326</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6056070215254048</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5168884686051674</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.486362540449001</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>57,15%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>58,05%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>48,43%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 17,85</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,07; 15,49</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 13,11</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 8,23</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>17,13; 109,94</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>17,77; 114,29</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>7,24; 93,75</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-21,58; 32,57</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>10.67427431497307</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.17621994165598</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.689885307820143</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.192606219025233</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.5646065798724029</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6016699622252739</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.4650508425985383</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.03996745793231998</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,39</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>24,87%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>75,12%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>65,17%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>36,83%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>4.197456440883512</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.198935427692478</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.692930730430157</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.575490493384724</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.1736717583697089</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1741666087090243</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.05573224995019458</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2166395224356627</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 12,3</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,46; 14,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 13,05</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 13,5</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-15,99; 97,66</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>19,91; 143,09</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>19,64; 129,88</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 99,65</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.99968428493226</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.01407919523665</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.76028504975353</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.337738140491508</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.11118291246057</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.178228230058189</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.9058420785174859</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3339253809117904</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>40,95%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>44,73%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>13,14%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.522890246072409</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.758800784949177</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.046724954794998</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.99263486576769</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.2597064726665417</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.7862109837949245</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.6066365137191532</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3359393139259374</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 13,66</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 14,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 10,6</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3,82; 81,09</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 94,33</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-14,01; 49,97</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.430144361557272</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.716105921085436</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.770818233474063</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4935488512436205</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.1645893025321381</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.2195681137003893</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.1549613264416439</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.02110447178933561</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.37482165740014</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.49780887285953</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.73451739874351</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.51342528556883</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.9498413921645698</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.51175032634982</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.216343403617851</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.9686395408018773</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,72</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,19</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>37,77%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>49,6%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>41,33%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>24,42%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 10,87</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,64; 11,75</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 9,68</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 10,58</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>16,0; 64,75</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>28,65; 74,46</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>16,78; 67,88</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>5,73; 47,34</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.649043887265266</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.024805441814696</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.259071268848021</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.688752465212822</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.3638387979070313</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5210169524421836</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.3830805246647733</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2594637462114232</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.987197623073192</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>5.048248278328725</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.487563026224622</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.051760729594411</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.09686393839855606</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2404911973499127</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1332198792049818</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.03699740805332135</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.91980678554469</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.76637845945099</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.367055804771454</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.84027782162679</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.6766016867809733</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.8450985636817094</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6472434980659799</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5355730610487147</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
